--- a/AadiGranthSahibTatkra.xlsx
+++ b/AadiGranthSahibTatkra.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandeep\OneDrive\Sachkhoj Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\AadiGranth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{1FD293F4-6980-44A5-B496-CDABF5B190E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{F2383169-A694-4101-A561-67CB61D022A7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C9EBD8-8BDA-4486-9275-C86C037DCEAB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{B14D38C9-60DE-403E-BFFD-A4806722A9C1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="583">
   <si>
     <t>Baani</t>
   </si>
@@ -49,6 +49,1737 @@
   </si>
   <si>
     <t>Tatkara</t>
+  </si>
+  <si>
+    <t>0001_0008_Japu</t>
+  </si>
+  <si>
+    <t>0008_0012_Rehraas</t>
+  </si>
+  <si>
+    <t>0012_0013_Sohila</t>
+  </si>
+  <si>
+    <t>0014-0026_Siri_Raag_M1</t>
+  </si>
+  <si>
+    <t>0026_0039_Siri_Raag_M3</t>
+  </si>
+  <si>
+    <t>0039_0042_Siri_Raag_M4</t>
+  </si>
+  <si>
+    <t>0042_0053_Siri_Raag_M5</t>
+  </si>
+  <si>
+    <t>0053_0064_Siri_RaagM1_Ashtpadia</t>
+  </si>
+  <si>
+    <t>0064_0070_Siri_RaagM3_Ashtpadia</t>
+  </si>
+  <si>
+    <t>0070_0071_Siri_Raag_M5</t>
+  </si>
+  <si>
+    <t>0071_0073_Siri_Raag_M1</t>
+  </si>
+  <si>
+    <t>0073_0074_Siri_Raag_M5</t>
+  </si>
+  <si>
+    <t>0074_0076_Siri_Raag_M1_Pehre</t>
+  </si>
+  <si>
+    <t>0076_0077_Siri_Raag_M4</t>
+  </si>
+  <si>
+    <t>0077_0078_Siri_Raag_M5</t>
+  </si>
+  <si>
+    <t>0078_0079_Siri_Raag_M4</t>
+  </si>
+  <si>
+    <t>0079_0080_Siri_Raag_M5</t>
+  </si>
+  <si>
+    <t>0080_0081_Siri_Raag_Ke_Chant_M5</t>
+  </si>
+  <si>
+    <t>0081_0082_Siri_Raag_M4_Vanjara</t>
+  </si>
+  <si>
+    <t>0083_0091_Siriraag_Ki_Vaar_M4_Sloka_Naal</t>
+  </si>
+  <si>
+    <t>0091_0092_Siriraag_Kabir_Jio_Ki</t>
+  </si>
+  <si>
+    <t>0092_0092_Siriraag_Bhagat_Kabir_Jo_Ka</t>
+  </si>
+  <si>
+    <t>0092_0092_Siriraag_Trilochan_Ka</t>
+  </si>
+  <si>
+    <t>0093_0093_Siriraag_Bani_Bhagat_Beni_Jio_Ki</t>
+  </si>
+  <si>
+    <t>0093_Siriraag_Tohi_Mohi</t>
+  </si>
+  <si>
+    <t>0094_0096_Raag_Maajh_M4</t>
+  </si>
+  <si>
+    <t>0096_0109_Maajh_M5</t>
+  </si>
+  <si>
+    <t>0109_0109_Raag_Maajh_Ashtpadia_M1</t>
+  </si>
+  <si>
+    <t>0109_0129_Maajh_M3</t>
+  </si>
+  <si>
+    <t>0129_0130_Maajh_M4</t>
+  </si>
+  <si>
+    <t>0130_0132_Maajh_M5</t>
+  </si>
+  <si>
+    <t>0132_0133_Maajh_M5</t>
+  </si>
+  <si>
+    <t>0133_0136_Barah_Maah_Maajh_M5</t>
+  </si>
+  <si>
+    <t>0136_0137_Maajh_M5_Din_Raen</t>
+  </si>
+  <si>
+    <t>0137_0150_Vaar_Maajh_Ki_Tatha_Slok_M1</t>
+  </si>
+  <si>
+    <t>0151_0154_Raag_Gaudi_Gwareri_M1</t>
+  </si>
+  <si>
+    <t>0156_0156_Gaudi_Poorbi_Deepki_M1</t>
+  </si>
+  <si>
+    <t>0156_0163_Raag_Gaudi_Gwareri_M3</t>
+  </si>
+  <si>
+    <t>0163_0175_Gaudi_Gwareri_M4</t>
+  </si>
+  <si>
+    <t>0175_0185_M5_Raag_Gaudi_Gwareri</t>
+  </si>
+  <si>
+    <t>0185_0202_Raag_Gaudi_Gwareri_M5</t>
+  </si>
+  <si>
+    <t>0202_0203_Raag_Gaudi_Cheti_M5</t>
+  </si>
+  <si>
+    <t>0203_0203_Gaudi_Bairagan_Rhoey_Ke_Chant_Ke_Ghar_M5</t>
+  </si>
+  <si>
+    <t>0203_0203_Raag_Gaudi_Bairagan_M5</t>
+  </si>
+  <si>
+    <t>0204_0204_Raag_Gaudi_Poorbi_M5</t>
+  </si>
+  <si>
+    <t>0204_0209_Raag_Gaudi_Poorbi_M5</t>
+  </si>
+  <si>
+    <t>0210_0210_Raag_Gaudi_Poorbi_M5</t>
+  </si>
+  <si>
+    <t>0210_0213_Raag_Gaudi_Cheti_M5</t>
+  </si>
+  <si>
+    <t>0213_0214_Raag_Gaudi_M5</t>
+  </si>
+  <si>
+    <t>0214_0214_Raag_Gaudi_Malwa_M5</t>
+  </si>
+  <si>
+    <t>0214_0216_Raag_Gaudi_Mala_M5</t>
+  </si>
+  <si>
+    <t>0216_0217_Raag_Gaudi_Maajh_M5</t>
+  </si>
+  <si>
+    <t>0217_0218_Raag_Gaudi_Maajh_M5</t>
+  </si>
+  <si>
+    <t>0219_0220_Raag_Gaudi_M9</t>
+  </si>
+  <si>
+    <t>0220_0228_Raag_Gaudi_Ashtpadia_M1_Gaudi_Gwareri</t>
+  </si>
+  <si>
+    <t>0225_0229_Gaudi_Bairagan_M1</t>
+  </si>
+  <si>
+    <t>0229_0233_Raag_Gaudi_Gwareri_M3_Ashtpadia</t>
+  </si>
+  <si>
+    <t>0233_0234_Raag_Gaudi_Bairagan_M3</t>
+  </si>
+  <si>
+    <t>0234_0235_Raag_Gaudi_Poorbi_M4_Karhale</t>
+  </si>
+  <si>
+    <t>0235_0240_Raag_Gaudi_Gwareri_M5_Ashtpadia</t>
+  </si>
+  <si>
+    <t>0240_0241_Raag_Gaudi_Maajh_M5</t>
+  </si>
+  <si>
+    <t>0241_0242_Gaudi_M5</t>
+  </si>
+  <si>
+    <t>0242_0243_Raag_Gaudi_Poorbi_Chant_M1</t>
+  </si>
+  <si>
+    <t>0243_0247_Raag_Gaudi_Poorbi_Chant_M3</t>
+  </si>
+  <si>
+    <t>0247_0249_Raag_Gaudi_Chant_M5</t>
+  </si>
+  <si>
+    <t>0250_0262_Gaudi_Baavan_Akhri_M5</t>
+  </si>
+  <si>
+    <t>0262_0296_Gaudi_Sukhmani_M5</t>
+  </si>
+  <si>
+    <t>0296_0300_Thiti_Gaudi_M5</t>
+  </si>
+  <si>
+    <t>0300_0318_Gaudi_Ki_Vaar_M4</t>
+  </si>
+  <si>
+    <t>0318_0323_Gaudi_Ki_Vaar_M5</t>
+  </si>
+  <si>
+    <t>0323_0330_Raag_Gaudi_Bhagtan_Ki_Baani_Kabeer_Jio</t>
+  </si>
+  <si>
+    <t>0330_0332_Raag_Gaudi_Gwareri_Ashtpadi_Kabeer_Ji_Ki</t>
+  </si>
+  <si>
+    <t>0332_0334_Raag_Gaudi_Bairagan_Kabeer_Ji</t>
+  </si>
+  <si>
+    <t>0334_0340_Raag_Gaudi_Poorbi_Kabeer_Ji</t>
+  </si>
+  <si>
+    <t>0340_0343_Raag_Gaudi_Poorbi_Baavan_Akhri_Kabeeer_Jio_Ki</t>
+  </si>
+  <si>
+    <t>0343_0344_Raag_Gaudi_Thiti_Kabeer_Ji_Ki</t>
+  </si>
+  <si>
+    <t>0344_0345_Raag_Gaudi_Vaar_Kabeer_Jio_Ke</t>
+  </si>
+  <si>
+    <t>0345_0345_Raag_Gaudi_Cheti_Baani_Naamdeo_Jio_Ki</t>
+  </si>
+  <si>
+    <t>0345_0345_Raag_Gaudi_Ravidaas_Jio_Ke_Pade_Gaudi_Gwareri</t>
+  </si>
+  <si>
+    <t>0345_0346_Gaudi_Bairagan_Ravidaas_Jio</t>
+  </si>
+  <si>
+    <t>0346_0346_Gaudi_Bairagan</t>
+  </si>
+  <si>
+    <t>0346_0346_Gaudi_Poorbi_Ravidaas_Jio</t>
+  </si>
+  <si>
+    <t>0347_0348_Raag_Aasa_M1</t>
+  </si>
+  <si>
+    <t>0348_0358_Raag_Aasa_M1</t>
+  </si>
+  <si>
+    <t>0358_0358_Aasa_Ghar4_M1</t>
+  </si>
+  <si>
+    <t>0359_0359_Aasa_Ghar5_M1</t>
+  </si>
+  <si>
+    <t>0359_0360_Aasa_Ghar6_M1</t>
+  </si>
+  <si>
+    <t>0360_0365_Raag_Aasa_Ghar2_M3</t>
+  </si>
+  <si>
+    <t>0365_0365_Aasa_Ghar8_Kaafi_M3</t>
+  </si>
+  <si>
+    <t>0365_0365_Aasa_M4_Ghar2</t>
+  </si>
+  <si>
+    <t>0366_0367_Raag_Aasa_Ghar2_M4</t>
+  </si>
+  <si>
+    <t>0368_0368_M4_Raag_Aasa</t>
+  </si>
+  <si>
+    <t>0369_0369_Raag_Aasa_Ghar8_Ke_Kaafi_M4</t>
+  </si>
+  <si>
+    <t>0369_0370_Raag_Aasawari_Ghar_16_Ke_2_M4_Sudhang</t>
+  </si>
+  <si>
+    <t>0370_0379_Raag_Aasa_Ghar2_M5</t>
+  </si>
+  <si>
+    <t>0379_0380_Raag_Aasa_Ghar3_M5</t>
+  </si>
+  <si>
+    <t>0380_0380_Raag_Aasa_Ghar5_M5</t>
+  </si>
+  <si>
+    <t>0380_0384_Raag_Aasa_Ghar6_M5</t>
+  </si>
+  <si>
+    <t>0384_0396_Raag_Aasa_Ghar7_M5</t>
+  </si>
+  <si>
+    <t>0396_0401_Aasa_Ghar8_kaafi_M5</t>
+  </si>
+  <si>
+    <t>0401_0401_Aasa_Ghar9_M5</t>
+  </si>
+  <si>
+    <t>0401_0403_Aasa_Ghar10_M5</t>
+  </si>
+  <si>
+    <t>0403_0404_Aasa_Ghar11_M5</t>
+  </si>
+  <si>
+    <t>0405_0406_Raag_Aasa_M5_Ghar12</t>
+  </si>
+  <si>
+    <t>0406_0407_Raag_Aasa_M5_Ghar13</t>
+  </si>
+  <si>
+    <t>0407_0408_Aasa_M5_Ghar14</t>
+  </si>
+  <si>
+    <t>0408_0409_Aasa_M5_Ghar15_Padtaal</t>
+  </si>
+  <si>
+    <t>0409_0411_Raag_Aasa_M5_Ghar17_Aasavari</t>
+  </si>
+  <si>
+    <t>0411_0411_Raag_Aasa_M9</t>
+  </si>
+  <si>
+    <t>0411_0416_Raag_Aaasa_M1_Ashtpadia_Ghar2</t>
+  </si>
+  <si>
+    <t>0417_0418_Raag_Aasa_M1_Ashtpadia_Ghar3</t>
+  </si>
+  <si>
+    <t>0418_0422_Aasa_Kaafi_M1_Ghar8_Ashtpadia</t>
+  </si>
+  <si>
+    <t>0422_0424_Aasa_M3_Ashtpadia_Ghar2</t>
+  </si>
+  <si>
+    <t>0424_0430_Raag_Aasa_M3_Ashtpadia_Ghar8_Kaafi</t>
+  </si>
+  <si>
+    <t>0430_0430_Aasa_M5_Ashtpadia_Ghar2</t>
+  </si>
+  <si>
+    <t>0431_0431_Aasavari_M5_Ghar3</t>
+  </si>
+  <si>
+    <t>0431_0432_Aasa_M5_Birhade_Ghar4_chanta_Ki_Jati</t>
+  </si>
+  <si>
+    <t>0432_0434_Raag_Aasa_M1_Pati_Likhi</t>
+  </si>
+  <si>
+    <t>0434_0435_Raag_Aasa_M3_Pati</t>
+  </si>
+  <si>
+    <t>0435_0437_Raag_Aasa_M1_Chant_Ghar1</t>
+  </si>
+  <si>
+    <t>0438_0438_Raag_Aasa_M1_Chant_Ghar2</t>
+  </si>
+  <si>
+    <t>0438_0439_Aasa_M1_Chant_Ghar3</t>
+  </si>
+  <si>
+    <t>0439_0440_Aasa_M3_Chant_Ghar1</t>
+  </si>
+  <si>
+    <t>0440_0442_Aasa_M3_Chant_Ghar3</t>
+  </si>
+  <si>
+    <t>0442_0444_Raag_Aasa_Chant_M4_Ghar1</t>
+  </si>
+  <si>
+    <t>0444_0447_Aasa_Chant_M4_Ghar2</t>
+  </si>
+  <si>
+    <t>0448_0448_Aasa_M4_Chant</t>
+  </si>
+  <si>
+    <t>0448_0451_Aasa_M4_Chant_Ghar4</t>
+  </si>
+  <si>
+    <t>0451_0452_Aasa_M4_Chant_Ghar5</t>
+  </si>
+  <si>
+    <t>0452_0453_Raag_Aasa_M5_Chant_Ghar1</t>
+  </si>
+  <si>
+    <t>0453_0454_Aasa_Chant_M5_Ghar4</t>
+  </si>
+  <si>
+    <t>0454_0459_Aasa_M5_Chant_Ghar6</t>
+  </si>
+  <si>
+    <t>0459_0461_Aasa_M5_Chant_Ghar7</t>
+  </si>
+  <si>
+    <t>0461_0462_Aasa_M5_Chant_Ghar8</t>
+  </si>
+  <si>
+    <t>0462_0475_Aasa_Ki_Vaar</t>
+  </si>
+  <si>
+    <t>0475_0478_Aasa_Sri_Kabeer_Jio</t>
+  </si>
+  <si>
+    <t>0478_0479_Aasa_Sri_Kabeer_Jio_ke_Chaupde_Iktuke</t>
+  </si>
+  <si>
+    <t>0479_0481_Aasa_Sri_Kabeer_Jio_Ke_Panchpade9_Dotuke5</t>
+  </si>
+  <si>
+    <t>0481_0483_Aasa_Sri_Kabeer_Jio_Ke_Tipade8_Dotuke7_Iktuke1</t>
+  </si>
+  <si>
+    <t>0483_0484_Aasa_Sri_Kabeer_Jio_Ke_Dopade</t>
+  </si>
+  <si>
+    <t>0485_0486_Aasa_Bani_Sri_Namdeo_Je_Ki</t>
+  </si>
+  <si>
+    <t>0486_0487_Aasa_Bani_Sri_Ravidas_Jio_ki</t>
+  </si>
+  <si>
+    <t>0487_0488_Aasa_Bani_Bhagat_Dhanne_Ji_Ki</t>
+  </si>
+  <si>
+    <t>0488_0488_Aasa_Sekh_Farid_Jio_Ki_Bani</t>
+  </si>
+  <si>
+    <t>0489_0489_Raag_Goojri_M1_Chaupde_Ghar1</t>
+  </si>
+  <si>
+    <t>0490_0492_Raag_Goojri_M3_Ghar1</t>
+  </si>
+  <si>
+    <t>0492_0494_Raag_Goojri_M4_Chaupde_Ghar1</t>
+  </si>
+  <si>
+    <t>0494_0494_Goojri_M4_Ghar3</t>
+  </si>
+  <si>
+    <t>0495_0495_Goojri_M5_Chaupde_Ghar1</t>
+  </si>
+  <si>
+    <t>0495_0497_Goojri_M5_Chaupde_Ghar2</t>
+  </si>
+  <si>
+    <t>0497_0497_Goojri_M5_Panchpada_Ghar2</t>
+  </si>
+  <si>
+    <t>0497_0498_Goojri_M5_Tipade_Ghar2</t>
+  </si>
+  <si>
+    <t>0498_0501_Goojri_M5_Dopade_Ghar2</t>
+  </si>
+  <si>
+    <t>0501_0502_Goojri_M5_Ghar4_Chaupde</t>
+  </si>
+  <si>
+    <t>0502_0503_Goojri_M5_Ghar4_Dupade</t>
+  </si>
+  <si>
+    <t>0503_0505_Goojri_Ashtpadia_M1_Ghar1</t>
+  </si>
+  <si>
+    <t>0505_0506_Goojri_M1_Ghar4</t>
+  </si>
+  <si>
+    <t>0506_0506_Goojri_M3_Ghar1</t>
+  </si>
+  <si>
+    <t>0506_0507_Goojri_M4_Ghar2</t>
+  </si>
+  <si>
+    <t>0507_0508_Gojri_M5_Ghar2</t>
+  </si>
+  <si>
+    <t>0508_0508_Goojri_M5_Ghar4</t>
+  </si>
+  <si>
+    <t>0508_0517_Goojri_Ki_vaar_M3</t>
+  </si>
+  <si>
+    <t>0517_0524_Raag_Goojri_Vaar_M5</t>
+  </si>
+  <si>
+    <t>0524_0524_Raag_Goojri_Bhagtan_Ki_Bani_Sri Kabeer_jio</t>
+  </si>
+  <si>
+    <t>0525_0525_Goojri_Sri_Namdev_Ji_ke_Pade_Ghar1</t>
+  </si>
+  <si>
+    <t>0525_0525_Goojri_Sri_Ravidas_Ji_ke_Pade_Ghar3</t>
+  </si>
+  <si>
+    <t>0525_0526_Goojri_Sri_Trilochan_jio_Ke_Pade_Ghar1</t>
+  </si>
+  <si>
+    <t>0526_0526_Goojri_Sri_JaiDeo_Ka_Pada_Ghar4</t>
+  </si>
+  <si>
+    <t>0527_0528_Raag_Devgandhari_M4_Ghar1</t>
+  </si>
+  <si>
+    <t>0528_0532_Devgandhari_M5_Ghar2</t>
+  </si>
+  <si>
+    <t>0533_0533_Degandhari_M5</t>
+  </si>
+  <si>
+    <t>0533_0534_Ragg_Devgandhari_M5_Ghar3</t>
+  </si>
+  <si>
+    <t>0534_0534_Raag_Devgandhari_M5_Ghar4</t>
+  </si>
+  <si>
+    <t>0534_0535_Raag_Devgandhari_M5_Ghar5</t>
+  </si>
+  <si>
+    <t>0535_0536_Raag_Devgandhari_M5_Ghar6</t>
+  </si>
+  <si>
+    <t>0536_0536_Raag_Devgandhari_M5_Ghar7</t>
+  </si>
+  <si>
+    <t>0536_0536_Raag_Devgandhari_M9</t>
+  </si>
+  <si>
+    <t>0537_0537_Raag_Bihagda_Chaupde_M5_Ghar2</t>
+  </si>
+  <si>
+    <t>0537_0537_Raag_Bihagda_M9</t>
+  </si>
+  <si>
+    <t>0537_0541_Raag_Bihagda_Chant_M4_Ghar1</t>
+  </si>
+  <si>
+    <t>0541_0544_Bihagda_M5_Chant_Ghar1</t>
+  </si>
+  <si>
+    <t>0544_0548_Bihagda_M5_Ghar2</t>
+  </si>
+  <si>
+    <t>0548_0556_Bihagde_ki_Vaar_M4</t>
+  </si>
+  <si>
+    <t>0557_0558_Raag_Vadhans_M1_Ghar1</t>
+  </si>
+  <si>
+    <t>0558_0560_Vadhans_M3_Ghar1</t>
+  </si>
+  <si>
+    <t>0560_0561_Vadhans_M4_Ghar1</t>
+  </si>
+  <si>
+    <t>0561_0562_Vadhans_M4_Ghar2</t>
+  </si>
+  <si>
+    <t>0562_0564_Vadhans_M5_Ghar1</t>
+  </si>
+  <si>
+    <t>0564_0564_Vadhans_M5_Ghar2</t>
+  </si>
+  <si>
+    <t>0564_0565_Vadhans_M3_Ashtpadia</t>
+  </si>
+  <si>
+    <t>0565_0567_Vadhans_M1_Chant</t>
+  </si>
+  <si>
+    <t>0567_0572_Vadhans_M3_Chant</t>
+  </si>
+  <si>
+    <t>0572_0575_Vadhans_M4_Chant</t>
+  </si>
+  <si>
+    <t>0575_0576_Vadhans_M4_Ghodian</t>
+  </si>
+  <si>
+    <t>0576_0578_Raag_Vadhans_M5_Chant_Ghar4</t>
+  </si>
+  <si>
+    <t>0578_0582_Raag_Vadhans_M1_Ghar5_Ashtpadia</t>
+  </si>
+  <si>
+    <t>0582_0585_Vadhans_M3_Mahala_Teeja</t>
+  </si>
+  <si>
+    <t>0585_0594_Vadhans_Ki_vaar_M4</t>
+  </si>
+  <si>
+    <t>0595_0599_Sorath_M1_Ghar1_Chaupde</t>
+  </si>
+  <si>
+    <t>0599_0599_Sorath_M1_Ghar3</t>
+  </si>
+  <si>
+    <t>0599_0604_Sorath_M3_Ghar1</t>
+  </si>
+  <si>
+    <t>0604_0608_Sorath_M4_Ghar1</t>
+  </si>
+  <si>
+    <t>0608_0611_Sorath_M5_Ghar1_Tituke</t>
+  </si>
+  <si>
+    <t>0611_0616_Sorath_M5_Ghar2_Chaupde</t>
+  </si>
+  <si>
+    <t>0617_0621_Sorath_M5_Ghar2_Dupade</t>
+  </si>
+  <si>
+    <t>0621_0625_Sorath_M5_Ghar3_Chaupde</t>
+  </si>
+  <si>
+    <t>0625_0631_Sorath_M5_Ghar3_Dupade</t>
+  </si>
+  <si>
+    <t>0631_0634_Sorath_M9</t>
+  </si>
+  <si>
+    <t>0634_0637_Sorath_M1_Ghar1_Ashtpadia_Chautuki</t>
+  </si>
+  <si>
+    <t>0637_0639_Sorath_M3_Ghar1_Tituki</t>
+  </si>
+  <si>
+    <t>0639_0641_Sorath_M5_Ghar1_Ashtpadia</t>
+  </si>
+  <si>
+    <t>0641_0642_Sorath_M5_Ghar2_Ashtpadia</t>
+  </si>
+  <si>
+    <t>0642_0654_Raag_Sorath_Vaar_M4_Ki</t>
+  </si>
+  <si>
+    <t>0654_0656_Raag_Sorath_Bani_Bhagat_Kabeer_Ji_Ki_Ghar1</t>
+  </si>
+  <si>
+    <t>0656_0657_Raag_Sorath_Bani_Bhagat_Namde_Ji_Ki_Ghar2</t>
+  </si>
+  <si>
+    <t>0657_0659_Raag_Sorath_Bani_Bhagat_Ravidas_ji_ki</t>
+  </si>
+  <si>
+    <t>0659_0659_Raag_Sorath_Bani_Bhagat_Bhikhan_Ki</t>
+  </si>
+  <si>
+    <t>0660_0661_Dhanasri_M1_Ghar1_Chaupde</t>
+  </si>
+  <si>
+    <t>0661_0662_Dhanasri_M1_Ghar_Dooja</t>
+  </si>
+  <si>
+    <t>0662_0663_Dhanasri_M1_Ghar3</t>
+  </si>
+  <si>
+    <t>0663_0663_Dhanasri_M1_Aarti</t>
+  </si>
+  <si>
+    <t>0663_0666_Dhanasri_M3_Ghar2_Chaupde</t>
+  </si>
+  <si>
+    <t>0666_0666_Raag_Dhanasri_M3_Ghar4</t>
+  </si>
+  <si>
+    <t>0666_0668_Dhanasri_M4_Ghar1_Chaupde</t>
+  </si>
+  <si>
+    <t>0668_0670_Dhanasri_M4_Ghar5_Dupade</t>
+  </si>
+  <si>
+    <t>0670_0675_Dhanasri_M5_Ghar1_Chaupde</t>
+  </si>
+  <si>
+    <t>0675_0676_Raag_Dhanasri_M5</t>
+  </si>
+  <si>
+    <t>0676_0677_Dhanasri_M5_Ghar2_Chaupde</t>
+  </si>
+  <si>
+    <t>0677_0678_Dhanasri_M5</t>
+  </si>
+  <si>
+    <t>0678_0678_Dhanasri_M5_Ghar6</t>
+  </si>
+  <si>
+    <t>0679_0679_Dhanasri_M5_Ghar7</t>
+  </si>
+  <si>
+    <t>0679_0683_Dhanasri_M5_Ghar8_Dupade</t>
+  </si>
+  <si>
+    <t>0683_0683_Dhanasri_M5_Ghar9_Padtaal</t>
+  </si>
+  <si>
+    <t>0683_0684_Dhanasri_M5_Ghar12</t>
+  </si>
+  <si>
+    <t>0684_0685_Dhanasri_M9</t>
+  </si>
+  <si>
+    <t>0685_0686_Dhanasri_M1_Ghar2_Ashtpadia</t>
+  </si>
+  <si>
+    <t>0686_0687_Dhanasri_M5_Ghar6_Ashtpadi</t>
+  </si>
+  <si>
+    <t>0687_0689_Dhanasri_M1_Chant</t>
+  </si>
+  <si>
+    <t>0690_0690_Dhanasri_Chant_M6_Ghar1</t>
+  </si>
+  <si>
+    <t>0691_0691_Dhanasri_M5_Chant</t>
+  </si>
+  <si>
+    <t>0691_0692_Raag_Dhanasri_Bani_Bhagat_Kabeer_Ji_Ki</t>
+  </si>
+  <si>
+    <t>0692_0694_Dhanasri_Bani_Bhagat_Namdev_Ji_Ki</t>
+  </si>
+  <si>
+    <t>0694_0694_Dhanasri_Bhagat_Ravidas_Ji_Ki</t>
+  </si>
+  <si>
+    <t>0695_0695_Dhanasri_Bani_Bhagtan_Ki_Dhanna_Ji</t>
+  </si>
+  <si>
+    <t>0695_0695_Dhanasri_Bani_Bhagtan_Ki_Peepa_Ji</t>
+  </si>
+  <si>
+    <t>0695_0695_Dhanasri_Bani_Bhagtan_Ki_Sri_Sain_Ji</t>
+  </si>
+  <si>
+    <t>0695_0695_Dhanasri_Bani_Bhagtan_Ki_Trilochan</t>
+  </si>
+  <si>
+    <t>0696_0698_Jaitsri_M4_Ghar1_Chaupde</t>
+  </si>
+  <si>
+    <t>0698_0699_Jaitsri_M4_Ghar2</t>
+  </si>
+  <si>
+    <t>0700_0700_Jaitsri_M5_Ghar3</t>
+  </si>
+  <si>
+    <t>0700_0700_Jaitsri_M5_Ghar3_Dupade</t>
+  </si>
+  <si>
+    <t>0701_0702_Jaitsri_M5_Ghar4_Dupade</t>
+  </si>
+  <si>
+    <t>0702_0703_Jaitsri_M9</t>
+  </si>
+  <si>
+    <t>0703_0704_Jaitsri_M5_Chant_Ghar1</t>
+  </si>
+  <si>
+    <t>0704_0705_Jaitsri_M5_Ghar2_Chant</t>
+  </si>
+  <si>
+    <t>0705_0710_Jaitsri_M5_vaar_Sloka_Naal</t>
+  </si>
+  <si>
+    <t>0710_0710_Jaitsri_Bani_Bhagtan_Ki_ravidasJio</t>
+  </si>
+  <si>
+    <t>0711_0711_Raag_Todi_M4_Ghar1</t>
+  </si>
+  <si>
+    <t>0711_0712_Todi_M5_Ghar1_Dupade</t>
+  </si>
+  <si>
+    <t>0712_0713_Todi_M5_Ghar2_Chaupde</t>
+  </si>
+  <si>
+    <t>0713_0715_Todi_M5_Ghar2_Dupade</t>
+  </si>
+  <si>
+    <t>0715_0715_Todi_M5_Ghar3_Chaupde</t>
+  </si>
+  <si>
+    <t>0715_0715_Todi_M5_Ghar4_Dupade</t>
+  </si>
+  <si>
+    <t>0716_0718_Todi_M5_Ghar5_Dupade</t>
+  </si>
+  <si>
+    <t>0718_0718_Todi_Bani_Bhagtan_Ki</t>
+  </si>
+  <si>
+    <t>0718_0718_Todi_M9</t>
+  </si>
+  <si>
+    <t>0719_0720_Raag_Bairadi_M4_Ghar1_Dupade</t>
+  </si>
+  <si>
+    <t>0720_0720_Raag_Bairadi_M5_Ghar1</t>
+  </si>
+  <si>
+    <t>0721_0723_Raag_Tilang_M1</t>
+  </si>
+  <si>
+    <t>0723_0723_Tilang_M4_Ghar2</t>
+  </si>
+  <si>
+    <t>0723_0724_Tilang_M5_Ghar1</t>
+  </si>
+  <si>
+    <t>0724_0726_Tilang_M1_Ghar2</t>
+  </si>
+  <si>
+    <t>0726_0727_Tilang_M9_Kafi</t>
+  </si>
+  <si>
+    <t>0727_0727_Tilang_Bani_Bhagtan_Ki_Kabeer_Ji</t>
+  </si>
+  <si>
+    <t>0728_0728_Raag_Soohi_M1_Chaupde_Ghar1</t>
+  </si>
+  <si>
+    <t>0728_0728_Soohi_M1_Ghar2</t>
+  </si>
+  <si>
+    <t>0729_0730_Soohi_M1_Ghar6</t>
+  </si>
+  <si>
+    <t>0730_0731_Soohi_M1_Ghar7</t>
+  </si>
+  <si>
+    <t>0731_0732_Raag_Soohi_M4_Ghar1</t>
+  </si>
+  <si>
+    <t>0732_0733_Soohi_M4_Ghar2</t>
+  </si>
+  <si>
+    <t>0733_0734_Soohi_M4_Ghar6</t>
+  </si>
+  <si>
+    <t>0735_0736_Soohi_M4_Ghar7</t>
+  </si>
+  <si>
+    <t>0736_0738_Raag_Soohi_M5_Ghar1</t>
+  </si>
+  <si>
+    <t>0738_0745_Soohi_M5_Ghar3</t>
+  </si>
+  <si>
+    <t>0745_0746_Raag_Soohi_M5_Ghar4</t>
+  </si>
+  <si>
+    <t>0746_0746_Raag_Soohi_M5_Ghar5_Padtaal</t>
+  </si>
+  <si>
+    <t>0746_0747_Raag_Soohi_M5_Ghar6</t>
+  </si>
+  <si>
+    <t>0747_0750_Raag_Soohi_M5_Ghar7</t>
+  </si>
+  <si>
+    <t>0750_0750_Raag_Ashtpadia_M1_Ghar1</t>
+  </si>
+  <si>
+    <t>0751_0751_Soohi_M1_Ghar9</t>
+  </si>
+  <si>
+    <t>0751_0753_Soohi_M1_Kafi_Ghar10</t>
+  </si>
+  <si>
+    <t>0753_0754_Raag_Soohi_M3_Ghar1_Ashtpadia</t>
+  </si>
+  <si>
+    <t>0755_0757_Raag_Soohi_M3_Ghar10</t>
+  </si>
+  <si>
+    <t>0757_0758_Raag_Soohi_Ashtpadia_M4_Ghar2</t>
+  </si>
+  <si>
+    <t>0758_0759_Raag_Soohi_M4_Ashtpadia_Ghar10</t>
+  </si>
+  <si>
+    <t>0759_0759_Raag_Soohi_Ashtpadia_M4_Ghar1</t>
+  </si>
+  <si>
+    <t>0760_0760_Raag_Soohi_M5_Ghar3</t>
+  </si>
+  <si>
+    <t>0760_0761_Raag_Soohi_M5_Ashtpadia_Ghar9</t>
+  </si>
+  <si>
+    <t>0761_0762_Raag_Soohi_M5_Ashtpadia_Ghar10_Kafi</t>
+  </si>
+  <si>
+    <t>0762_0763_Raag_Soohi_M1_Kuchji</t>
+  </si>
+  <si>
+    <t>0763_0764_Raag_Soohi_Chant_M1_Ghar1</t>
+  </si>
+  <si>
+    <t>0764_0764_Raag_Soohi_M1_Chant_Ghar2</t>
+  </si>
+  <si>
+    <t>0764_0765_Raag_Soohi_M1_Ghar3</t>
+  </si>
+  <si>
+    <t>0765_0767_Raag_Soohi_Chant_M1_Ghar4</t>
+  </si>
+  <si>
+    <t>0767_0768_Raag_Soohi_Chant_M3_Ghar2</t>
+  </si>
+  <si>
+    <t>0768_0772_Raag_Soohi_M3_Ghar3</t>
+  </si>
+  <si>
+    <t>0773_0774_Raag_Soohi_M4_Chant_Ghar1</t>
+  </si>
+  <si>
+    <t>0773_0774_Raag_Soohi_M4_Laava</t>
+  </si>
+  <si>
+    <t>0774_0775_Raag_Soohi_Chant_M4_Ghar2</t>
+  </si>
+  <si>
+    <t>0775_0776_Raag_Soohi_Chant_M4_Ghar3</t>
+  </si>
+  <si>
+    <t>0776_0777_Soohi_M4_Ghar5</t>
+  </si>
+  <si>
+    <t>0777_0778_Raag_Soohi_Chant_M5_Ghar1</t>
+  </si>
+  <si>
+    <t>0778_0779_Raag_Soohi_Chant_M5_Ghar2</t>
+  </si>
+  <si>
+    <t>0779_0784_Raag_Soohi_Chant_M5_Ghar3</t>
+  </si>
+  <si>
+    <t>0784_0785_Raag_Soohi_M5_Chant</t>
+  </si>
+  <si>
+    <t>0785_0792_Vaar_Soohi_Ki_Sloka_Naal_M3</t>
+  </si>
+  <si>
+    <t>0792_0793_Raag_Soohi_Bani_Sri_Kabeer_Jio</t>
+  </si>
+  <si>
+    <t>0793_0794_Raag_Soohi_Bani_Sri_Ravidas_Jio_Ki</t>
+  </si>
+  <si>
+    <t>0794_0794_Raag_Soohi_Bani_Sekh_Farid_Ji_Ki</t>
+  </si>
+  <si>
+    <t>0795_0796_Raag_Bilawal_M1_Chaupde_Ghar1</t>
+  </si>
+  <si>
+    <t>0796_0798_Bilawal_M3_Ghar1</t>
+  </si>
+  <si>
+    <t>0798_0800_Raag_Bilawal_M4_Ghar3</t>
+  </si>
+  <si>
+    <t>0800_0801_Raag_Bilawal_M4_Padtaal_Ghar13</t>
+  </si>
+  <si>
+    <t>0801_0802_Raag_Bilawal_M5_Chaupde_Ghar1</t>
+  </si>
+  <si>
+    <t>0802_0803_Raag_Bilawal_M5_Ghar2</t>
+  </si>
+  <si>
+    <t>0803_0806_Raag_Bilawal_M5_Ghar4</t>
+  </si>
+  <si>
+    <t>0806_0808_Raag_Bilawal_M5_Ghar4_Dupade</t>
+  </si>
+  <si>
+    <t>0808_0817_Raag_Bilawal_M5_Ghar5_Chaupde</t>
+  </si>
+  <si>
+    <t>0817_0820_Raag_Bilawal_M5_Chaupde_Ghar5</t>
+  </si>
+  <si>
+    <t>0820_0821_Raag_Bilawal_M5_Chaupde_Dupade_Ghar6</t>
+  </si>
+  <si>
+    <t>0821_0827_Raag_Bilawal_M5_Chaupde_Dupade_Ghar2</t>
+  </si>
+  <si>
+    <t>0827_0829_Raag_Bilawal_M5_Dupade_Ghar8</t>
+  </si>
+  <si>
+    <t>0829_0830_Raag_Bilawal_M5_Dupade_Ghar9</t>
+  </si>
+  <si>
+    <t>0830_0830_Raag_Bilawal_M5_Ghar13_Padtaal</t>
+  </si>
+  <si>
+    <t>0830_0831_Raag_Bilawal_M9_Duapde</t>
+  </si>
+  <si>
+    <t>0831_0832_Bilawal_Ashtpadia_M1_Ghar10</t>
+  </si>
+  <si>
+    <t>0832_0833_Bilawal_M5_Ashtpadi_Ghar10</t>
+  </si>
+  <si>
+    <t>0833_0837_Bilawal_M4_Ashtpadia_Ghar11</t>
+  </si>
+  <si>
+    <t>0837_0838_Raag_Bilawal_M5_Ashtpadi_Ghar12</t>
+  </si>
+  <si>
+    <t>0838_0840_Bilawal_M1_Thiti_Ghar10_Jati</t>
+  </si>
+  <si>
+    <t>0841_0843_Bilawal_M3_Vaar_Sat_Ghar10</t>
+  </si>
+  <si>
+    <t>0843_0844_Bilawal_M1_Chant_Dakhni</t>
+  </si>
+  <si>
+    <t>0844_0845_Chant_Bilawal_M4_Mangal</t>
+  </si>
+  <si>
+    <t>0845_0846_Bilawal_M5_Chant</t>
+  </si>
+  <si>
+    <t>0847_0847_Bilawal_M5_Chant</t>
+  </si>
+  <si>
+    <t>0847_0848_Bilawal_M5_Chant_Mangal</t>
+  </si>
+  <si>
+    <t>0849_0855_Bilawal_Ki_Vaar_M4</t>
+  </si>
+  <si>
+    <t>0855_0857_Bilawal_Bani_Bhagtan_Ki_Kabeer_Jio_Ki</t>
+  </si>
+  <si>
+    <t>0857_0858_Bilawal_Bani_Bhagt_Namdev_Ji_Ki</t>
+  </si>
+  <si>
+    <t>0858_0858_Bani_Sadhne_Ki_Raag_Bilawal</t>
+  </si>
+  <si>
+    <t>0858_0858_Bilawal_Bani_Ravidas_Bhagat_Ki</t>
+  </si>
+  <si>
+    <t>0859_0862_Raag_Gond_Chaupde_M4_Ghar1</t>
+  </si>
+  <si>
+    <t>0862_0862_Raag_Gond_M5_Chaupde_Ghar1</t>
+  </si>
+  <si>
+    <t>0862_0869_Raag_Gond_M5_Chaupde_Ghar2</t>
+  </si>
+  <si>
+    <t>0869_0869_Raag_Gond_Ashtpadia_M5_Ghar2</t>
+  </si>
+  <si>
+    <t>0870_0870_Raag_Gond_Bani_Bhagtan_Ki_Kabeer_Ji_Ghar1</t>
+  </si>
+  <si>
+    <t>0870_0873_Raag_Gond_Bani_Kabeer_Jio_Ki_Ghar2</t>
+  </si>
+  <si>
+    <t>0873_0874_Raag_Gond_Bani_Namdeo_Ji_Ki_Ghar1</t>
+  </si>
+  <si>
+    <t>0874_0875_Raag_Gond_Bani_Namdeo_Jio_Ki_Ghar2</t>
+  </si>
+  <si>
+    <t>0875_0875_Raag_Gond_Bani_Ravidas_Jio_Ki_Ghar2</t>
+  </si>
+  <si>
+    <t>0876_0879_Ramkali_M1_Ghar1_Chaupde</t>
+  </si>
+  <si>
+    <t>0880_0880_Ramkali_M3_Ghar1</t>
+  </si>
+  <si>
+    <t>0880_0882_Ramkali_M4_Ghar1</t>
+  </si>
+  <si>
+    <t>0882_0886_Raag_Ramkali_M5_Ghar1</t>
+  </si>
+  <si>
+    <t>0886_0900_Raag_Ramkali_M5_Ghar2</t>
+  </si>
+  <si>
+    <t>0901_0901_Raag_Ramkali_M5_Ghar2_Dupade</t>
+  </si>
+  <si>
+    <t>0901_0901_Raag_Ramkali_M5_Padtaal_Ghar3</t>
+  </si>
+  <si>
+    <t>0901_0902_Raag_Ramkali_M9_Tipade</t>
+  </si>
+  <si>
+    <t>0902_0908_Ramkali_M1_Ashtpadia</t>
+  </si>
+  <si>
+    <t>0908_0912_Ramkali_M3_Ashtpadia</t>
+  </si>
+  <si>
+    <t>0912_0915_Ramkali_M5_Ashtpadia</t>
+  </si>
+  <si>
+    <t>0915_0916_Ramkali_M5_Ashtpadi</t>
+  </si>
+  <si>
+    <t>0917_0922_Ramkali_M3_Anand</t>
+  </si>
+  <si>
+    <t>0923_0924_Ramkali_Sad</t>
+  </si>
+  <si>
+    <t>0924_0927_Ramkali_M5_Chant</t>
+  </si>
+  <si>
+    <t>0927_0929_Ramkali_M5_Ruti_Slok</t>
+  </si>
+  <si>
+    <t>0929_0938_Ramkali_M1_Dakhni_Oankar</t>
+  </si>
+  <si>
+    <t>0938_0946_Ramkali_M1_Sidh_Gosti</t>
+  </si>
+  <si>
+    <t>0947_0956_Ramkali_Ki_Vaar_M3</t>
+  </si>
+  <si>
+    <t>0957_0966_Ramkali_Ki_Vaar_M5</t>
+  </si>
+  <si>
+    <t>0966_0968_Ramkali_Ki_Vaar_Rae_Balwand_Tatha_Satay_Bhoom_Aakhi</t>
+  </si>
+  <si>
+    <t>0968_0971_Ramkali_Bani_Bhagan_Ki_Kabeer_jio</t>
+  </si>
+  <si>
+    <t>0971_0972_Ramkali_Ghar2_Bani_Kabeer_Ji_Ki</t>
+  </si>
+  <si>
+    <t>0972_0973_Bani_Namdeo_Jio_Ki_Ramkali_Ghar1</t>
+  </si>
+  <si>
+    <t>0973_0974_Ramkali_Bani_Ravidas_Ji_Ki</t>
+  </si>
+  <si>
+    <t>0974_0974_Ramkali_Bani_Beni_Jio_Ki</t>
+  </si>
+  <si>
+    <t>0975_0977_Raag_Nat_Narayan_M4</t>
+  </si>
+  <si>
+    <t>0977_0978_Nat_Narayan_M4_Padtaal</t>
+  </si>
+  <si>
+    <t>0978_0978_Raag_Nat_Narayan_M5</t>
+  </si>
+  <si>
+    <t>0978_0980_Nat_Narayan_M5_Dupade</t>
+  </si>
+  <si>
+    <t>0980_0980_Nat_Narayan_M5</t>
+  </si>
+  <si>
+    <t>0980_0983_Nat_Ashtpadia_M4</t>
+  </si>
+  <si>
+    <t>0984_0986_Raag_Mali_Gauda_M4</t>
+  </si>
+  <si>
+    <t>0986_0987_Mali_Gauda_M5</t>
+  </si>
+  <si>
+    <t>0987_0988_Mali_Gauda_M5_Dupade</t>
+  </si>
+  <si>
+    <t>0988_0988_Mali_Gauda_Bani_Namdev_Ji_Ki</t>
+  </si>
+  <si>
+    <t>0989_0992_Raag_Maru_M1_Ghar1_Chaupde</t>
+  </si>
+  <si>
+    <t>0993_0993_Raag_Maru_M1_Ghar5</t>
+  </si>
+  <si>
+    <t>0993_0995_Maru_M3_Ghar1</t>
+  </si>
+  <si>
+    <t>0995_0995_Maru_M4_Ghar2</t>
+  </si>
+  <si>
+    <t>0996_0997_Maru_M4_Ghar3</t>
+  </si>
+  <si>
+    <t>0997_0998_Maru_M4_Ghar5</t>
+  </si>
+  <si>
+    <t>0998_1001_Maru_M5_Ghar2</t>
+  </si>
+  <si>
+    <t>1001_1003_Maru_M5_Ghar3</t>
+  </si>
+  <si>
+    <t>1003_1006_Maru_M5_Ghar4</t>
+  </si>
+  <si>
+    <t>1006_1007_Maru_M5_Ghar6_Dupade</t>
+  </si>
+  <si>
+    <t>1007_1008_Maru_Anjuli_M5_Ghar7</t>
+  </si>
+  <si>
+    <t>1008_1008_Maru_M9</t>
+  </si>
+  <si>
+    <t>1008_1014_Maru_Ashtpadia_M1_Ghar1</t>
+  </si>
+  <si>
+    <t>1014_1016_Maru_Kafi_M1_Ghar2</t>
+  </si>
+  <si>
+    <t>1016_1016_Maru_M3_Ghar5_Ashtpadi</t>
+  </si>
+  <si>
+    <t>1017_1018_Maru_M5_Ghar3_Ashtpadia</t>
+  </si>
+  <si>
+    <t>1018_1019_Maru_M5_Ghar4_Ashtpadia</t>
+  </si>
+  <si>
+    <t>1019_1020_Maru_M5_Ghar9_Ashtpadia</t>
+  </si>
+  <si>
+    <t>1020_1043_Maru_Soleh_M1</t>
+  </si>
+  <si>
+    <t>1043_1069_Maru_Solhe_M3</t>
+  </si>
+  <si>
+    <t>1069_1071_Maru_Solhe_M4</t>
+  </si>
+  <si>
+    <t>1071_1072_Maru_Solhe_M5</t>
+  </si>
+  <si>
+    <t>1072_1073_Maru_Solhe_M5</t>
+  </si>
+  <si>
+    <t>1073_1074_Maru_Solhe_M5</t>
+  </si>
+  <si>
+    <t>1074_1075_Maru_M5_Solhe</t>
+  </si>
+  <si>
+    <t>1075_1076_Maru_Solhe_M5</t>
+  </si>
+  <si>
+    <t>1076_1078_Maru_Solhe_M5</t>
+  </si>
+  <si>
+    <t>1078_1081_Maru_Solhe_M5</t>
+  </si>
+  <si>
+    <t>1081_1085_Maru_Solhe_M5</t>
+  </si>
+  <si>
+    <t>1085_1086_Maru_M5</t>
+  </si>
+  <si>
+    <t>1086_1094_Maru_Vaar_M3</t>
+  </si>
+  <si>
+    <t>1094_1102_Maru_Vaar_M5_Dakhne_M5</t>
+  </si>
+  <si>
+    <t>1102_1104_Raag_Maru_Bani_Kabeer_Jio_Ki</t>
+  </si>
+  <si>
+    <t>1104_1105_Raag_Maru_Bani_Kabeer_Jio_Ki</t>
+  </si>
+  <si>
+    <t>1105_1105_Kabeer_Ka_Sabad_Raag_Maru_Bani_Namdeo_Ji_Ki</t>
+  </si>
+  <si>
+    <t>1106_1106_Raag_Maru_Bani_Jaideo_Jio_Ki</t>
+  </si>
+  <si>
+    <t>1106_1106_Raag_Maru_Bani_Ravidas_Jio_Ki</t>
+  </si>
+  <si>
+    <t>1107_1113_Tukhari_Chant_M1_Bareh_Maha</t>
+  </si>
+  <si>
+    <t>1113_1117_Tukhari_Chant_M4</t>
+  </si>
+  <si>
+    <t>1117_1117_Tukhari_Chant_M5</t>
+  </si>
+  <si>
+    <t>1118_1119_Kedara_M4_Ghar1</t>
+  </si>
+  <si>
+    <t>1119_1119_Kedara_M5_Ghar2</t>
+  </si>
+  <si>
+    <t>1119_1119_Kedara_M5_Ghar3</t>
+  </si>
+  <si>
+    <t>1119_1120_Kedara_M5_Ghar4</t>
+  </si>
+  <si>
+    <t>1120_1122_Kedara_M5_Ghar5</t>
+  </si>
+  <si>
+    <t>1122_1122_Kedara_Chant_M5</t>
+  </si>
+  <si>
+    <t>1123_1124_Raag_Kedara_Bani_Kabeer_Jio_Ki</t>
+  </si>
+  <si>
+    <t>1124_1124_Raag_Kedara_Bani_Ravidas_Jio_Ki</t>
+  </si>
+  <si>
+    <t>1125_1127_Raag_Bhairon_M1_Ghar1_Chaupde</t>
+  </si>
+  <si>
+    <t>1127_1130_Raag_Bhairon_M3_Chaupde_Ghar1</t>
+  </si>
+  <si>
+    <t>1130_1133_Bhairon_M3_Ghar2</t>
+  </si>
+  <si>
+    <t>1133_1134_Raag_Bhairon_M4_Chaupde_Ghar1</t>
+  </si>
+  <si>
+    <t>1134_1135_Bhairon_M4_Ghar2</t>
+  </si>
+  <si>
+    <t>1136_1138_Bhairon_M5_Ghar1</t>
+  </si>
+  <si>
+    <t>1138_1152_Raag_Bhairon_M5_Chaupde_Ghar2</t>
+  </si>
+  <si>
+    <t>1153_1153_Raag_Bhairon_M5_Padtaal_Ghar3</t>
+  </si>
+  <si>
+    <t>1153_1154_Bhairon_Ashtpadia_M1_Ghar2</t>
+  </si>
+  <si>
+    <t>1154_1155_Bhairon_M3_Ghar2</t>
+  </si>
+  <si>
+    <t>1155_1157_Bhairon_M5_Ashtpadia_Ghar2</t>
+  </si>
+  <si>
+    <t>1157_1162_Bhairon_Bani_Bhagtan_Ki_Kabeer_Jio_Ghar1</t>
+  </si>
+  <si>
+    <t>1162_1163_Bhairon_Kabeer_Jio_Ashtpadi_Ghar2</t>
+  </si>
+  <si>
+    <t>1163_1164_Bhairon_Bani_Namdeo_Jio_Ki_Ghar1</t>
+  </si>
+  <si>
+    <t>1164_1167_Bhairon_Namdeo_Jio_Ghar2</t>
+  </si>
+  <si>
+    <t>1167_1167_Bhairon_Bani_Ravidas_Jio_Ki_Ghar2</t>
+  </si>
+  <si>
+    <t>1168_1170_Raag_Basant_M1_Ghar1_Chaupde_Dutuke</t>
+  </si>
+  <si>
+    <t>1170_1172_M1_Basant_Hindol_Ghar2</t>
+  </si>
+  <si>
+    <t>1172_1177_Basant_M3_Ghar1_Dutuke</t>
+  </si>
+  <si>
+    <t>1177_1177_Basnt_Hindol_M3_Ghar2</t>
+  </si>
+  <si>
+    <t>1177_1178_Raag_Basant_M4_Ghar1_Iktuke</t>
+  </si>
+  <si>
+    <t>1178_1179_Basant_Hindol_M4_Ghar2</t>
+  </si>
+  <si>
+    <t>1180_1184_Basant_M5_Ghar1_Dutuke</t>
+  </si>
+  <si>
+    <t>1184_1185_Basnt_M5_Ghar1_Iktuke</t>
+  </si>
+  <si>
+    <t>1185_1185_Basant_M5</t>
+  </si>
+  <si>
+    <t>1185_1186_Basant_M5_Ghar2_Hindol</t>
+  </si>
+  <si>
+    <t>1186_1187_Raag_Basant_Hindol_M9</t>
+  </si>
+  <si>
+    <t>1187_1190_Basant_M1_Ashtpadia_Ghar1_Dutukia</t>
+  </si>
+  <si>
+    <t>1190_1191_Basant_Hindol_M1_Ghar2</t>
+  </si>
+  <si>
+    <t>1191_1191_Basant_Hindol_Ghar2_M4</t>
+  </si>
+  <si>
+    <t>1192_1193_Basant_M5_Ghar1_Dutukia</t>
+  </si>
+  <si>
+    <t>1193_1193_Basant_Ki_Vaar_M5</t>
+  </si>
+  <si>
+    <t>1193_1195_Basant_Bani_Bhagtan_Ki_Kabeer_Ji_Ghar1</t>
+  </si>
+  <si>
+    <t>1195_1195_Basant_Hindol_Ghar2</t>
+  </si>
+  <si>
+    <t>1195_1195_Ramanand_Ji_Ghar1</t>
+  </si>
+  <si>
+    <t>1195_1196_Basant_Bani_Namdeo_Ji_Ki</t>
+  </si>
+  <si>
+    <t>1196_1196_Basant_Bani_Ravidas_Ji_Ki</t>
+  </si>
+  <si>
+    <t>1196_1196_Basant_Kabeer_Jio</t>
+  </si>
+  <si>
+    <t>1197_1198_Raag_Sarag_Chaupde_M1_Ghar1</t>
+  </si>
+  <si>
+    <t>1198_1200_Sarang_M4_Ghar1</t>
+  </si>
+  <si>
+    <t>1200_1200_Sarang_M4_Ghar3_Dupada</t>
+  </si>
+  <si>
+    <t>1200_1202_Sarang_M4_Ghar5_Dupade_Padtaal</t>
+  </si>
+  <si>
+    <t>1202_1206_Sarang_M5_Chaupde_Ghar1</t>
+  </si>
+  <si>
+    <t>1206_1208_Sarang_M5_Ghar2</t>
+  </si>
+  <si>
+    <t>1208_1209_Sarang_M5_Ghar3</t>
+  </si>
+  <si>
+    <t>1209_1229_Sarang_M5_Dupade_Ghar4</t>
+  </si>
+  <si>
+    <t>1229_1229_Sarang_M5_Chaupde_Ghar5</t>
+  </si>
+  <si>
+    <t>1229_1231_Sarang_M5_Ghar6_Padtaal</t>
+  </si>
+  <si>
+    <t>1231_1232_Raag_Sarang_M9</t>
+  </si>
+  <si>
+    <t>1232_1233_Raag_Sarang_Ashtpadia_M1_Ghar1</t>
+  </si>
+  <si>
+    <t>1233_1235_Sarang_M3_Ashtpadia_Ghar1</t>
+  </si>
+  <si>
+    <t>1235_1235_Sarang_M5_Ashtpadia_Ghar1</t>
+  </si>
+  <si>
+    <t>1235_1236_Sarang_M5_Ashtpadi_Ghar6</t>
+  </si>
+  <si>
+    <t>1236_1237_Sarang_Chant_M5</t>
+  </si>
+  <si>
+    <t>1237_1251_Sarang_Ki_Vaar_M4</t>
+  </si>
+  <si>
+    <t>1251_1252_Raag_Sarang_Bani_Bhagtan_Ki_Kabeer_Ji</t>
+  </si>
+  <si>
+    <t>1252_1253_Sarang_Bani_Namdeo_Ji_Ki</t>
+  </si>
+  <si>
+    <t>1253_1253_Sarang</t>
+  </si>
+  <si>
+    <t>1253_1253_Sarang_Kabeer_Jio</t>
+  </si>
+  <si>
+    <t>1253_1253_Sarang_M5_Soordas</t>
+  </si>
+  <si>
+    <t>1254_1256_Raag_Malaar_Chaupde_M1_Ghar1</t>
+  </si>
+  <si>
+    <t>1256_1257_Malaar_M1_Ghar2</t>
+  </si>
+  <si>
+    <t>1257_1261_Malaar_M3_Chaupde_Ghar1</t>
+  </si>
+  <si>
+    <t>1261_1262_Malaar_M3_Ghar2</t>
+  </si>
+  <si>
+    <t>1262_1265_Raag_Malaar_M4_Ghar1_Chaupde</t>
+  </si>
+  <si>
+    <t>1265_126_Malaar_M4_Padtaal_Ghar3</t>
+  </si>
+  <si>
+    <t>1266_1267_Raag_Malaar_M5_Chaupde_Ghar1</t>
+  </si>
+  <si>
+    <t>1267_1270_Raag_Malaar_M5_Chaupde_Dupade_Ghar1</t>
+  </si>
+  <si>
+    <t>1270_1271_Raag_Malaar_M5_Chaupde_Ghar2</t>
+  </si>
+  <si>
+    <t>1271_1273_Raag_Malaar_M5_Padtaal_Ghar3</t>
+  </si>
+  <si>
+    <t>1273_1274_Malaar_M1_Ashtpadia_Ghar1</t>
+  </si>
+  <si>
+    <t>1274_1275_Malaar_M1_Ashtpadia_Ghar2</t>
+  </si>
+  <si>
+    <t>1276_1277_Malaar_M3_Ashtpadia_Ghar1</t>
+  </si>
+  <si>
+    <t>1277_1278_Malaar_M3_Ashtpadi_Ghar2</t>
+  </si>
+  <si>
+    <t>1278_1278_Raag_Malaar_Chant_M5</t>
+  </si>
+  <si>
+    <t>1278_1291_Vaar_Sloka_Ki_M1_</t>
+  </si>
+  <si>
+    <t>1292_1293_Raag_Malaar_Bani_Bhagat_Namdev_Jio_Ki</t>
+  </si>
+  <si>
+    <t>1293_1293_Malaar</t>
+  </si>
+  <si>
+    <t>1293_1293_Malaar_Bani_Bhagat_Ravidas_Ji_Ki</t>
+  </si>
+  <si>
+    <t>1294_1296_Raag_Kanra_Chaupde_M4_Ghar1</t>
+  </si>
+  <si>
+    <t>1296_1298_Kanra_M4_Padtaal_Ghar5</t>
+  </si>
+  <si>
+    <t>1298_1300_Kanra_M5_Ghar2</t>
+  </si>
+  <si>
+    <t>1300_1301_Kanra_M5_Ghar3</t>
+  </si>
+  <si>
+    <t>1301_1304_Kanra_M5_Ghar4</t>
+  </si>
+  <si>
+    <t>1304_1304_Kanra_M5_Ghar5</t>
+  </si>
+  <si>
+    <t>1304_1305_Kanra_M5_Ghar6</t>
+  </si>
+  <si>
+    <t>1305_1305_Kanra_M5_Ghar7</t>
+  </si>
+  <si>
+    <t>1305_1306_Kanra_M5_Ghar8</t>
+  </si>
+  <si>
+    <t>1306_1307_Kanra_M5_Ghar9</t>
+  </si>
+  <si>
+    <t>1307_1307_Kanra_M5_Ghar10</t>
+  </si>
+  <si>
+    <t>1307_1308_Kanra_M5_Ghar11</t>
+  </si>
+  <si>
+    <t>1308_1311_Kanra_Ashtpadia_M4_Ghar1</t>
+  </si>
+  <si>
+    <t>1312_1312_Kanra_Chant_M5</t>
+  </si>
+  <si>
+    <t>1312_1318_Kanre_Ki_Vaar_M4</t>
+  </si>
+  <si>
+    <t>1318_1318_Raag_Kanra_Bani_Namdev_Jio_Ki</t>
+  </si>
+  <si>
+    <t>1319_1321_Kalyan_M4</t>
+  </si>
+  <si>
+    <t>1321_1321_Kalyan_Bhopali_M4</t>
+  </si>
+  <si>
+    <t>1321_1322_Raag_Kalyan_M5_Ghar1</t>
+  </si>
+  <si>
+    <t>1322_1323_Kalyan_M5_Ghar2</t>
+  </si>
+  <si>
+    <t>1323_1326_Kalyan_M4_Ashtpadia</t>
+  </si>
+  <si>
+    <t>1327_1332_Raag_Parbhati_Bibhaas_M1_Chapude_Ghar1</t>
+  </si>
+  <si>
+    <t>1332_1335_Raag_Prabhati_M3_Chaupde</t>
+  </si>
+  <si>
+    <t>1335_1337_Prabhati_M4_Bibhaas</t>
+  </si>
+  <si>
+    <t>1337_1337_Prabhati_Bibhaas_Padtaal_M4</t>
+  </si>
+  <si>
+    <t>1337_1341_Prabhati_M5_Bibhaas</t>
+  </si>
+  <si>
+    <t>1341_1341_Prabhati_M5_Bibhaas_Padtaal</t>
+  </si>
+  <si>
+    <t>1341_1341_Prabhati_M5_Ghar2_Bibhaas</t>
+  </si>
+  <si>
+    <t>1342_1346_Prabhati_Ashtpadia_M1_Bibhaas</t>
+  </si>
+  <si>
+    <t>1346_1347_Prabhati_M3_Bibhaas</t>
+  </si>
+  <si>
+    <t>1347_1349_Bibhaas_Prabhati_M5_Ashtpadia</t>
+  </si>
+  <si>
+    <t>1349_1350_Bibhaas_Prabhati_Bani_Bhagat_Kabeer_Ji_Ki</t>
+  </si>
+  <si>
+    <t>1350_1351_Prabhati_Bani_Bhagat_Namdev_Ji_Ki</t>
+  </si>
+  <si>
+    <t>1351_1351_Prabhati_Bhagat_Beni_Ji_Ki</t>
+  </si>
+  <si>
+    <t>1352_1353_Raag_Jaijavanti_M9</t>
+  </si>
+  <si>
+    <t>1353_1353_Slok_Sehaskriti_M1</t>
+  </si>
+  <si>
+    <t>1353_1360_Slok_Sehaskriti_M5</t>
+  </si>
+  <si>
+    <t>1360_1361_M5_Gatha</t>
+  </si>
+  <si>
+    <t>1361_1363_Funneh_M5</t>
+  </si>
+  <si>
+    <t>1363_1364_Chaubole_M5</t>
+  </si>
+  <si>
+    <t>1364_1377_Slok_Bhagat_Kabeer_Jio_Ke</t>
+  </si>
+  <si>
+    <t>1377_1384_Slok_Sekh_Farid_Ke</t>
+  </si>
+  <si>
+    <t>1385_1389_Swaeyye_Sri_Mukhvaak_M5</t>
+  </si>
+  <si>
+    <t>1389_1390_Swaeyye_M_Pehle_Ke_1</t>
+  </si>
+  <si>
+    <t>1391_1392_Swaeyye_M_Dooje_Ke_2</t>
+  </si>
+  <si>
+    <t>1392_1396_Swaeyye_M_Teeje_Ke_3</t>
+  </si>
+  <si>
+    <t>1396_1406_Swaeyye_M_Chauthe_Ke_4</t>
+  </si>
+  <si>
+    <t>1406_1409_Swaeyye_M_Panjve_Ke_5</t>
+  </si>
+  <si>
+    <t>1410_1412_Slok_Vaara_Te_Vadheek_M1</t>
+  </si>
+  <si>
+    <t>1413_1421_Slok_M3</t>
+  </si>
+  <si>
+    <t>1421_1424_Slok_M4</t>
+  </si>
+  <si>
+    <t>1425_1426_Slok_M5</t>
+  </si>
+  <si>
+    <t>1426_1429_Slok_M9</t>
+  </si>
+  <si>
+    <t>1429_1429_Mundavni_M5</t>
   </si>
 </sst>
 </file>
@@ -518,15 +2249,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F307B0-605D-44FF-A022-FC6A3833764D}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E582"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="17.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.06640625" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
   </cols>
@@ -560,6 +2291,2889 @@
       <c r="A6">
         <v>1</v>
       </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C64" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C65" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C67" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C69" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C70" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C71" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C72" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C73" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C74" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C75" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C76" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C77" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C80" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C81" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C82" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C83" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C84" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C85" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C86" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C87" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C88" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C89" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C90" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C91" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C92" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C93" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C94" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C95" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C96" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C97" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C98" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C99" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C100" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C101" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C102" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C103" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C104" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C105" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C106" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C107" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C108" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C109" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C110" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C111" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C112" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C113" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C114" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C115" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C116" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C117" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C118" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C119" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C120" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C121" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C122" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C123" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C124" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C125" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C126" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C127" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C128" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C129" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C130" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C131" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C132" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C133" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C134" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C135" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C136" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C137" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C138" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C139" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C140" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C141" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C142" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C143" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C144" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C145" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C146" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C147" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C148" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C149" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C150" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C151" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C152" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C153" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C154" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C155" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C156" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C157" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C158" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C159" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C160" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C161" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C162" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C163" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C164" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C165" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C166" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C167" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C168" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C169" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C170" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C171" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C172" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C173" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C174" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C175" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C176" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C177" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C178" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C179" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C180" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C181" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C182" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C183" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C184" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C185" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C186" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C187" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C188" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C189" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C190" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C191" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C192" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C193" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C194" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C195" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C196" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C197" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C198" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C199" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C200" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C201" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C202" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C203" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C204" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C205" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C206" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C207" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C208" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C209" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C210" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C211" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C212" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C213" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C214" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C215" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C216" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C217" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C218" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C219" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C220" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C221" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C222" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C223" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="224" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C224" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C225" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C226" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C227" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C228" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C229" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="230" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C230" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="231" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C231" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C232" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="233" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C233" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C234" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="235" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C235" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="236" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C236" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="237" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C237" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="238" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C238" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="239" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C239" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="240" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C240" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C241" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C242" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C243" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="244" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C244" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="245" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C245" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="246" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C246" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="247" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C247" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="248" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C248" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="249" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C249" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="250" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C250" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="251" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C251" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="252" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C252" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="253" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C253" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="254" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C254" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="255" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C255" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="256" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C256" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="257" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C257" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="258" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C258" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="259" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C259" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="260" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C260" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="261" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C261" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="262" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C262" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="263" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C263" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="264" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C264" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="265" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C265" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="266" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C266" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="267" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C267" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="268" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C268" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="269" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C269" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="270" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C270" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="271" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C271" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="272" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C272" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="273" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C273" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C274" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="275" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C275" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="276" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C276" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="277" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C277" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="278" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C278" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="279" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C279" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="280" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C280" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="281" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C281" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="282" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C282" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="283" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C283" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="284" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C284" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="285" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C285" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="286" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C286" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="287" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C287" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="288" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C288" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="289" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C289" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="290" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C290" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="291" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C291" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="292" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C292" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="293" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C293" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="294" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C294" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="295" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C295" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="296" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C296" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="297" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C297" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="298" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C298" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="299" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C299" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="300" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C300" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="301" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C301" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="302" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C302" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="303" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C303" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="304" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C304" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="305" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C305" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="306" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C306" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="307" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C307" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="308" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C308" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="309" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C309" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="310" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C310" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="311" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C311" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="312" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C312" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="313" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C313" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="314" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C314" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="315" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C315" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="316" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C316" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="317" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C317" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="318" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C318" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="319" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C319" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="320" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C320" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C321" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="322" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C322" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="323" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C323" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="324" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C324" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="325" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C325" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="326" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C326" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="327" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C327" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="328" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C328" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="329" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C329" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="330" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C330" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="331" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C331" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="332" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C332" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="333" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C333" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="334" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C334" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="335" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C335" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="336" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C336" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="337" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C337" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="338" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C338" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="339" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C339" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="340" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C340" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="341" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C341" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="342" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C342" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="343" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C343" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="344" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C344" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="345" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C345" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="346" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C346" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="347" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C347" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="348" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C348" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="349" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C349" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="350" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C350" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="351" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C351" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="352" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C352" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="353" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C353" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="354" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C354" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="355" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C355" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="356" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C356" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="357" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C357" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="358" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C358" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="359" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C359" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="360" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C360" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="361" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C361" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="362" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C362" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="363" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C363" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="364" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C364" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="365" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C365" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="366" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C366" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="367" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C367" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="368" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C368" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="369" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C369" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="370" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C370" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="371" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C371" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="372" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C372" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="373" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C373" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="374" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C374" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="375" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C375" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="376" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C376" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="377" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C377" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="378" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C378" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="379" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C379" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="380" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C380" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="381" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C381" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="382" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C382" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="383" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C383" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="384" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C384" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="385" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C385" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="386" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C386" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="387" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C387" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="388" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C388" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="389" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C389" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="390" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C390" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="391" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C391" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="392" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C392" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="393" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C393" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="394" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C394" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="395" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C395" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="396" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C396" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="397" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C397" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="398" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C398" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="399" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C399" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="400" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C400" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="401" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C401" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="402" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C402" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="403" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C403" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="404" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C404" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="405" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C405" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="406" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C406" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="407" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C407" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="408" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C408" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="409" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C409" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="410" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C410" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="411" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C411" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="412" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C412" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="413" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C413" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="414" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C414" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="415" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C415" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="416" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C416" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="417" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C417" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="418" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C418" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="419" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C419" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="420" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C420" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="421" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C421" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="422" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C422" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="423" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C423" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="424" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C424" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="425" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C425" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="426" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C426" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="427" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C427" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="428" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C428" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="429" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C429" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="430" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C430" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="431" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C431" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="432" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C432" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="433" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C433" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="434" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C434" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="435" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C435" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="436" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C436" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="437" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C437" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="438" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C438" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="439" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C439" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="440" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C440" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="441" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C441" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="442" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C442" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="443" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C443" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="444" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C444" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="445" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C445" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="446" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C446" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="447" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C447" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="448" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C448" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="449" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C449" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="450" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C450" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="451" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C451" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="452" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C452" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="453" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C453" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="454" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C454" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="455" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C455" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="456" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C456" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="457" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C457" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="458" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C458" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="459" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C459" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="460" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C460" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="461" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C461" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="462" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C462" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="463" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C463" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="464" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C464" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="465" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C465" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="466" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C466" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="467" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C467" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="468" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C468" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="469" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C469" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="470" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C470" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="471" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C471" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="472" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C472" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="473" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C473" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="474" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C474" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="475" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C475" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="476" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C476" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="477" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C477" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="478" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C478" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="479" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C479" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="480" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C480" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="481" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C481" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="482" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C482" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="483" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C483" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="484" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C484" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="485" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C485" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="486" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C486" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="487" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C487" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="488" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C488" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="489" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C489" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="490" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C490" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="491" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C491" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="492" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C492" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="493" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C493" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="494" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C494" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="495" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C495" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="496" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C496" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="497" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C497" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="498" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C498" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="499" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C499" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="500" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C500" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="501" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C501" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="502" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C502" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="503" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C503" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="504" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C504" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="505" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C505" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="506" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C506" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="507" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C507" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="508" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C508" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="509" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C509" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="510" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C510" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="511" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C511" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="512" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C512" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="513" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C513" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="514" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C514" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="515" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C515" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="516" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C516" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="517" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C517" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="518" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C518" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="519" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C519" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="520" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C520" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="521" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C521" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="522" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C522" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="523" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C523" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="524" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C524" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="525" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C525" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="526" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C526" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="527" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C527" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="528" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C528" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="529" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C529" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="530" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C530" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="531" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C531" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="532" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C532" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="533" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C533" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="534" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C534" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="535" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C535" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="536" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C536" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="537" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C537" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="538" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C538" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="539" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C539" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="540" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C540" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="541" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C541" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="542" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C542" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="543" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C543" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="544" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C544" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="545" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C545" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="546" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C546" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="547" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C547" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="548" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C548" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="549" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C549" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="550" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C550" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="551" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C551" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="552" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C552" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="553" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C553" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="554" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C554" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="555" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C555" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="556" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C556" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="557" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C557" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="558" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C558" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="559" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C559" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="560" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C560" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="561" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C561" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="562" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C562" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="563" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C563" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="564" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C564" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="565" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C565" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="566" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C566" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="567" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C567" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="568" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C568" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="569" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C569" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="570" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C570" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="571" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C571" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="572" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C572" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="573" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C573" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="574" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C574" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="575" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C575" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="576" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C576" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="577" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C577" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="578" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C578" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="579" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C579" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="580" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C580" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="581" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C581" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="582" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C582" t="s">
+        <v>582</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/AadiGranthSahibTatkra.xlsx
+++ b/AadiGranthSahibTatkra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\AadiGranth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C9EBD8-8BDA-4486-9275-C86C037DCEAB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6D95BD-A5B4-4AC0-A15F-C416E8EFF312}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{B14D38C9-60DE-403E-BFFD-A4806722A9C1}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="586">
   <si>
     <t>Baani</t>
   </si>
@@ -1780,6 +1780,15 @@
   </si>
   <si>
     <t>1429_1429_Mundavni_M5</t>
+  </si>
+  <si>
+    <t>AudioFormat</t>
+  </si>
+  <si>
+    <t>Viakhea by (Gurjeet Singh)</t>
+  </si>
+  <si>
+    <t>Viakhea in (Class)</t>
   </si>
 </sst>
 </file>
@@ -1796,7 +1805,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1804,25 +1813,19 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1917,24 +1920,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2249,45 +2254,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88F307B0-605D-44FF-A022-FC6A3833764D}">
-  <dimension ref="A1:E582"/>
+  <dimension ref="A1:I582"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="58.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.06640625" customWidth="1"/>
+    <col min="4" max="4" width="15.1328125" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1328125" customWidth="1"/>
+    <col min="7" max="7" width="22.53125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C2" s="4" t="s">
+    <row r="1" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F5" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2295,52 +2313,52 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
         <v>16</v>
       </c>
